--- a/biology/Zoologie/Hyperolius_puncticulatus/Hyperolius_puncticulatus.xlsx
+++ b/biology/Zoologie/Hyperolius_puncticulatus/Hyperolius_puncticulatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyperolius puncticulatus est une espèce d'amphibiens de la famille des Hyperoliidae[1]. Elle est une des nombreuses espèces à être appelée grenouille des roseaux.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyperolius puncticulatus est une espèce d'amphibiens de la famille des Hyperoliidae. Elle est une des nombreuses espèces à être appelée grenouille des roseaux.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la partie occidentale de l'île d'Unguja en Tanzanie. Elle se rencontre à très basse altitude[1],[2].
-Elle vit dans des habitats variés tel que la forêt tropicale sèche, la forêt tropicale humide et les broussailles[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la partie occidentale de l'île d'Unguja en Tanzanie. Elle se rencontre à très basse altitude,.
+Elle vit dans des habitats variés tel que la forêt tropicale sèche, la forêt tropicale humide et les broussailles.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pfeffer, 1893 : Ostafrikanische Reptilien und Amphibien, gesammelt von Herrn Dr. F. Stuhlmann im Jahre 1888 und 1889. Jahrbuch der Hamburgischen Wissenschaftlichen Anstalten, vol. 10, p. 71-105 (texte intégral).</t>
         </is>
